--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1856.097992065605</v>
+        <v>1330.593917626344</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0129997730255127</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.0142147244826</v>
+        <v>9.538244190470813</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.670159673900997</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1270.740000000011</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.39</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.88634790002131</v>
+        <v>18.18449368032027</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.194807652060717</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>5.427798817200213</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.79148430448686</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,15 +1113,29 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>134.3550000000004</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>150.2100000000004</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>155.1200000000005</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3950000000004</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>155.3800000000005</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>245.7550000000012</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>272.2750000000012</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>271.8350000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>283.6050000000013</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>278.0100000000012</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>156.56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>161.41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>155.9399999999993</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999979</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999977</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>245.7550000000012</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>272.2750000000012</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>271.8350000000013</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>283.6050000000013</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>278.0100000000012</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95.75500000000119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2750000000012</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>121.8350000000013</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>133.6050000000013</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>128.0100000000012</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1802,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1813,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1824,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1835,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1846,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1857,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1868,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1879,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1901,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1912,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1923,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1934,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1956,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1967,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1978,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1989,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2011,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2110,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2121,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2132,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2140,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2151,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2184,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2195,56 +2209,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
